--- a/task_pizza.xlsx
+++ b/task_pizza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-chuhaojin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-chuhaojin\Desktop\save\Xrobot_Teleportation_VR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBDB43E-0892-40D0-802D-A1195F7DB9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263E531F-9BE9-47AF-A079-DA7A0BDFC51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{D1180D8F-E3BB-430C-A717-99F9E7A797A5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="81">
   <si>
     <t>Scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-pick_bootle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5-pick_bakeware</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9-squeeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10-smooth_sauce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,18 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12-smooth_chess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13-pour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14-place_bootle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15-place_bowl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +202,128 @@
   <si>
     <t>22-cut</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-pick_brush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-pick_brush</t>
+  </si>
+  <si>
+    <t>6-pick_brush</t>
+  </si>
+  <si>
+    <t>7-pick_brush</t>
+  </si>
+  <si>
+    <t>8-pick_brush</t>
+  </si>
+  <si>
+    <t>9-pick_brush</t>
+  </si>
+  <si>
+    <t>10-pick_brush</t>
+  </si>
+  <si>
+    <t>11-pick_brush</t>
+  </si>
+  <si>
+    <t>12-pick_brush</t>
+  </si>
+  <si>
+    <t>13-pick_brush</t>
+  </si>
+  <si>
+    <t>14-pick_brush</t>
+  </si>
+  <si>
+    <t>15-pick_brush</t>
+  </si>
+  <si>
+    <t>16-pick_brush</t>
+  </si>
+  <si>
+    <t>17-pick_brush</t>
+  </si>
+  <si>
+    <t>18-pick_brush</t>
+  </si>
+  <si>
+    <t>19-pick_brush</t>
+  </si>
+  <si>
+    <t>20-pick_brush</t>
+  </si>
+  <si>
+    <t>21-pick_brush</t>
+  </si>
+  <si>
+    <t>22-pick_brush</t>
+  </si>
+  <si>
+    <t>23-pick_brush</t>
+  </si>
+  <si>
+    <t>14-place_brush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-place_brush</t>
+  </si>
+  <si>
+    <t>16-place_brush</t>
+  </si>
+  <si>
+    <t>17-place_brush</t>
+  </si>
+  <si>
+    <t>18-place_brush</t>
+  </si>
+  <si>
+    <t>19-place_brush</t>
+  </si>
+  <si>
+    <t>20-place_brush</t>
+  </si>
+  <si>
+    <t>21-place_brush</t>
+  </si>
+  <si>
+    <t>22-place_brush</t>
+  </si>
+  <si>
+    <t>23-place_brush</t>
+  </si>
+  <si>
+    <t>24-place_brush</t>
+  </si>
+  <si>
+    <t>25-place_brush</t>
+  </si>
+  <si>
+    <t>26-place_brush</t>
+  </si>
+  <si>
+    <t>27-place_brush</t>
+  </si>
+  <si>
+    <t>28-place_brush</t>
+  </si>
+  <si>
+    <t>29-place_brush</t>
+  </si>
+  <si>
+    <t>30-place_brush</t>
+  </si>
+  <si>
+    <t>31-place_brush</t>
+  </si>
+  <si>
+    <t>32-place_brush</t>
+  </si>
+  <si>
+    <t>33-place_brush</t>
   </si>
 </sst>
 </file>
@@ -289,50 +395,13 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="0.79998168889431442"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2117,8 +2186,8 @@
   </sheetPr>
   <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2635,7 +2704,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2643,7 +2712,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2651,7 +2720,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2659,7 +2728,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2667,7 +2736,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2675,7 +2744,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2683,7 +2752,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2691,7 +2760,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2699,7 +2768,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2707,7 +2776,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2715,7 +2784,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2723,7 +2792,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2731,7 +2800,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2739,7 +2808,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2747,7 +2816,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2755,7 +2824,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2763,7 +2832,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2771,7 +2840,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2779,7 +2848,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2787,7 +2856,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2795,7 +2864,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2803,7 +2872,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2811,7 +2880,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2819,7 +2888,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2827,7 +2896,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2835,7 +2904,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2843,7 +2912,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2851,7 +2920,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2859,7 +2928,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2867,7 +2936,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2875,7 +2944,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2883,7 +2952,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2891,7 +2960,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2899,7 +2968,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2907,7 +2976,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2915,7 +2984,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2923,7 +2992,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2931,7 +3000,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2939,7 +3008,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2947,7 +3016,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -2955,7 +3024,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2963,7 +3032,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2971,7 +3040,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2979,7 +3048,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2987,7 +3056,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2995,7 +3064,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -3003,7 +3072,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -3011,7 +3080,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -3019,7 +3088,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -3027,7 +3096,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -3035,7 +3104,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -3043,7 +3112,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -3051,7 +3120,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -3059,7 +3128,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -3067,7 +3136,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -3075,7 +3144,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -3083,7 +3152,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -3091,7 +3160,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -3099,7 +3168,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -3107,7 +3176,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -3115,7 +3184,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3123,7 +3192,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -3131,7 +3200,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -3139,7 +3208,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -3147,7 +3216,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -3155,7 +3224,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -3163,7 +3232,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -3171,7 +3240,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -3179,7 +3248,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -3187,7 +3256,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -3195,7 +3264,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -3203,7 +3272,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -3211,7 +3280,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -3219,7 +3288,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -3227,7 +3296,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -3235,7 +3304,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -3243,7 +3312,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -3251,7 +3320,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -3259,7 +3328,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -3267,7 +3336,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -3275,7 +3344,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -3283,7 +3352,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -3291,7 +3360,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -3299,7 +3368,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3307,7 +3376,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -3315,7 +3384,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3323,7 +3392,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3331,7 +3400,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3339,7 +3408,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3347,7 +3416,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3355,7 +3424,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3363,7 +3432,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3371,7 +3440,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -3379,7 +3448,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3387,7 +3456,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3395,7 +3464,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3403,7 +3472,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3411,7 +3480,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3419,7 +3488,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3427,7 +3496,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3435,175 +3504,115 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3611,7 +3620,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -3619,7 +3628,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3627,7 +3636,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3635,7 +3644,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3643,7 +3652,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3651,7 +3660,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3659,7 +3668,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3667,7 +3676,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3675,7 +3684,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3683,7 +3692,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3691,7 +3700,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3699,7 +3708,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3707,7 +3716,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3715,7 +3724,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3723,7 +3732,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3731,7 +3740,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3739,7 +3748,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3747,7 +3756,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3755,7 +3764,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3763,7 +3772,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3771,7 +3780,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3779,7 +3788,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3787,7 +3796,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3795,7 +3804,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3803,7 +3812,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3811,7 +3820,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3819,7 +3828,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -3827,7 +3836,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3835,7 +3844,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3843,7 +3852,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3851,7 +3860,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3859,7 +3868,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3867,7 +3876,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3875,7 +3884,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -3883,7 +3892,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3891,7 +3900,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3899,7 +3908,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -3907,7 +3916,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -3915,175 +3924,115 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4091,7 +4040,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -4099,7 +4048,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -4107,7 +4056,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4115,7 +4064,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4123,7 +4072,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -4131,7 +4080,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -4139,7 +4088,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -4147,7 +4096,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -4155,7 +4104,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -4163,7 +4112,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -4171,7 +4120,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -4179,7 +4128,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -4187,7 +4136,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -4195,7 +4144,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -4203,7 +4152,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -4211,7 +4160,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -4219,7 +4168,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -4227,7 +4176,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -4235,7 +4184,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4243,7 +4192,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -4251,7 +4200,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4259,7 +4208,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -4267,7 +4216,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -4275,7 +4224,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -4283,7 +4232,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -4291,7 +4240,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -4299,7 +4248,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -4307,7 +4256,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4315,7 +4264,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4323,7 +4272,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4331,7 +4280,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4339,7 +4288,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4347,7 +4296,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4355,7 +4304,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4363,7 +4312,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4371,7 +4320,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4379,7 +4328,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4387,7 +4336,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4395,7 +4344,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4403,7 +4352,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4411,7 +4360,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4419,7 +4368,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4427,7 +4376,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4435,7 +4384,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4443,7 +4392,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4451,7 +4400,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4459,7 +4408,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4467,7 +4416,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4475,7 +4424,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4483,7 +4432,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4491,7 +4440,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -4499,7 +4448,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4507,7 +4456,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4515,7 +4464,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4523,7 +4472,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -4531,7 +4480,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -4539,7 +4488,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4547,7 +4496,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -4555,7 +4504,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -4563,7 +4512,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -4571,7 +4520,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -4579,7 +4528,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -4587,7 +4536,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -4595,7 +4544,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -4603,7 +4552,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -4611,7 +4560,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -4619,7 +4568,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -4627,7 +4576,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -4635,7 +4584,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -4643,7 +4592,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -4651,7 +4600,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -4659,7 +4608,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -4667,7 +4616,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -4675,7 +4624,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -4683,7 +4632,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -4691,7 +4640,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -4699,7 +4648,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -4707,7 +4656,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -4715,7 +4664,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -4723,7 +4672,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -4731,7 +4680,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -4739,7 +4688,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -4747,7 +4696,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -4755,7 +4704,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -4763,7 +4712,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -4771,7 +4720,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -4779,7 +4728,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -4787,7 +4736,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -4795,7 +4744,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -4803,7 +4752,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -4811,7 +4760,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -4819,7 +4768,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -4827,7 +4776,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -4835,7 +4784,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -4843,7 +4792,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -4851,7 +4800,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -4859,7 +4808,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -4867,7 +4816,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -4875,7 +4824,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -4883,7 +4832,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -4891,7 +4840,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -4899,7 +4848,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -4907,7 +4856,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -4915,7 +4864,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -4923,7 +4872,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -4931,7 +4880,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -4939,7 +4888,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -4947,7 +4896,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -4955,7 +4904,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -4963,7 +4912,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -4971,7 +4920,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -4979,7 +4928,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -4987,7 +4936,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -4995,7 +4944,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -5003,7 +4952,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -5011,7 +4960,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -5019,7 +4968,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -5027,7 +4976,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -5035,7 +4984,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -5043,7 +4992,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -5051,7 +5000,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -5059,7 +5008,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -5067,7 +5016,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -5075,7 +5024,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -5083,7 +5032,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -5091,7 +5040,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -5099,7 +5048,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -5107,7 +5056,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -5115,7 +5064,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -5123,7 +5072,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -5131,7 +5080,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -5139,7 +5088,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -5147,7 +5096,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -5155,7 +5104,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -5163,7 +5112,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -5171,7 +5120,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -5179,7 +5128,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -5187,7 +5136,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -5195,7 +5144,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -5203,7 +5152,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -5211,7 +5160,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -5219,7 +5168,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -5227,7 +5176,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -5235,7 +5184,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -5243,7 +5192,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -5251,7 +5200,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -5259,7 +5208,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -5267,7 +5216,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -5275,7 +5224,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -5283,7 +5232,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -5291,7 +5240,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -5299,7 +5248,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -5307,7 +5256,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -5315,7 +5264,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -5323,7 +5272,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -5331,7 +5280,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -5339,7 +5288,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -5347,7 +5296,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -5355,7 +5304,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -5363,7 +5312,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -5371,7 +5320,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -5379,7 +5328,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -5387,7 +5336,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -5395,7 +5344,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -5403,7 +5352,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -5411,7 +5360,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -5419,7 +5368,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -5427,7 +5376,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -5435,7 +5384,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -5443,7 +5392,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -5451,7 +5400,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -5459,7 +5408,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -5467,7 +5416,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -5475,7 +5424,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -5483,7 +5432,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -5491,7 +5440,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -5499,7 +5448,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -5507,7 +5456,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -5515,7 +5464,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -5523,7 +5472,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -5531,7 +5480,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -5539,7 +5488,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -5547,7 +5496,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -5555,7 +5504,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -5563,7 +5512,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -5571,7 +5520,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -5579,7 +5528,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -5587,7 +5536,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -5595,7 +5544,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -5603,7 +5552,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -5611,7 +5560,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -5619,7 +5568,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -5627,7 +5576,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -5635,7 +5584,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -5643,7 +5592,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -5651,7 +5600,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -5659,7 +5608,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -5667,13 +5616,13 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F442">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>MOD(ROW(), 2) = 1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/task_pizza.xlsx
+++ b/task_pizza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-chuhaojin\Desktop\save\Xrobot_Teleportation_VR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263E531F-9BE9-47AF-A079-DA7A0BDFC51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEBE0AB-1C97-43D1-B450-989D4C49E87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{D1180D8F-E3BB-430C-A717-99F9E7A797A5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="76">
   <si>
     <t>Scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,12 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-pick_brush</t>
-  </si>
-  <si>
-    <t>6-pick_brush</t>
-  </si>
-  <si>
     <t>7-pick_brush</t>
   </si>
   <si>
@@ -288,15 +282,6 @@
   </si>
   <si>
     <t>21-place_brush</t>
-  </si>
-  <si>
-    <t>22-place_brush</t>
-  </si>
-  <si>
-    <t>23-place_brush</t>
-  </si>
-  <si>
-    <t>24-place_brush</t>
   </si>
   <si>
     <t>25-place_brush</t>
@@ -370,11 +355,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -384,18 +380,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2184,10 +2196,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2384,7 +2396,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2392,7 +2404,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2412,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2420,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2416,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2424,7 +2436,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2444,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2440,7 +2452,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2448,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,7 +2468,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2544,7 +2556,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2552,7 +2564,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2560,7 +2572,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2568,7 +2580,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2576,7 +2588,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2584,7 +2596,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2592,7 +2604,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2600,7 +2612,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2608,7 +2620,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2616,7 +2628,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2624,7 +2636,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2632,7 +2644,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2640,7 +2652,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2648,7 +2660,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2656,7 +2668,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2664,7 +2676,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2672,7 +2684,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2680,7 +2692,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2688,7 +2700,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2696,7 +2708,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2704,7 +2716,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2712,7 +2724,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2720,7 +2732,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2728,7 +2740,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2736,7 +2748,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2744,7 +2756,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2752,7 +2764,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2760,7 +2772,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2768,7 +2780,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2776,7 +2788,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2784,7 +2796,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2792,7 +2804,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2800,7 +2812,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2808,7 +2820,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2816,7 +2828,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2824,7 +2836,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2832,7 +2844,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2840,7 +2852,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2848,7 +2860,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2856,7 +2868,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2936,7 +2948,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2944,7 +2956,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3176,7 +3188,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -3184,7 +3196,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3416,7 +3428,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3424,7 +3436,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3601,11 +3613,17 @@
       <c r="A181">
         <v>180</v>
       </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
+      <c r="B182" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
@@ -3836,7 +3854,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3844,7 +3862,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -4021,19 +4039,22 @@
       <c r="A241">
         <v>240</v>
       </c>
+      <c r="B241" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
+      <c r="B242" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
@@ -4192,7 +4213,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -4200,7 +4221,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4208,7 +4229,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -4216,7 +4237,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -4224,7 +4245,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -4232,7 +4253,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -4240,7 +4261,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -4248,7 +4269,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -4256,7 +4277,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4264,7 +4285,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4272,7 +4293,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4280,7 +4301,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4288,7 +4309,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4296,7 +4317,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4304,7 +4325,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4312,7 +4333,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4320,7 +4341,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4328,7 +4349,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4336,7 +4357,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4344,7 +4365,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4496,7 +4517,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -4504,7 +4525,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -4736,7 +4757,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -4744,7 +4765,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -4976,7 +4997,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -4984,7 +5005,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -5216,7 +5237,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -5224,7 +5245,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -5456,7 +5477,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -5464,7 +5485,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -5619,14 +5640,29 @@
         <v>40</v>
       </c>
     </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F442">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>MOD(ROW(), 2) = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F441">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(), 2) = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B451">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>MOD(ROW(), 2) = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F441">
+  <conditionalFormatting sqref="B451">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 1</formula>
     </cfRule>
